--- a/Info/CosMx - TMA info.xlsx
+++ b/Info/CosMx - TMA info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miri\OneDrive - Universität Zürich UZH\Documents\Pauline Busch\CosMx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miri\Documents\GitHub\CosMx-data-analysis\Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D494582-B4B4-4707-889C-DA1158AFCD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A79114-6753-4E64-8C1F-BC4C02CFB353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32025" yWindow="3930" windowWidth="21600" windowHeight="11295" xr2:uid="{CD79A769-058C-4CFB-9DD2-87F8FCC559F7}"/>
+    <workbookView xWindow="4725" yWindow="4110" windowWidth="21600" windowHeight="11295" xr2:uid="{CD79A769-058C-4CFB-9DD2-87F8FCC559F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
     <t>308171</t>
   </si>
   <si>
-    <t>Patoent_ID</t>
+    <t>Patient_ID</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
